--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_4_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_4_square_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[60.32344155914254, 67.10016004502441]</t>
+          <t>[60.32903324416962, 67.09456835999733]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[47.41924857154218, 52.128093100359955]</t>
+          <t>[47.417751145959606, 52.129590525942525]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[58.06577050664774, 68.72459249018755]</t>
+          <t>[58.07780709576167, 68.71255590107361]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[47.125044829825804, 53.28418000601858]</t>
+          <t>[47.12377482695696, 53.28545000888742]</t>
         </is>
       </c>
       <c r="U3" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_4_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_4_square_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[60.32903324416962, 67.09456835999733]</t>
+          <t>[60.29516773450254, 67.1284338696644]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[47.417751145959606, 52.129590525942525]</t>
+          <t>[47.41886182073686, 52.128479851165274]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[58.07780709576167, 68.71255590107361]</t>
+          <t>[58.144899122586025, 68.64546387424926]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[47.12377482695696, 53.28545000888742]</t>
+          <t>[47.12639941581546, 53.28282542002892]</t>
         </is>
       </c>
       <c r="U3" t="n">
